--- a/Squads/D2/Greuther Furth_Elversberg_squad.xlsx
+++ b/Squads/D2/Greuther Furth_Elversberg_squad.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="153">
   <si>
     <t>Rk</t>
   </si>
@@ -47,15 +47,15 @@
     <t>Min</t>
   </si>
   <si>
+    <t>90s</t>
+  </si>
+  <si>
     <t>Gls</t>
   </si>
   <si>
     <t>Ast</t>
   </si>
   <si>
-    <t>GlspAst</t>
-  </si>
-  <si>
     <t>npG</t>
   </si>
   <si>
@@ -110,213 +110,177 @@
     <t>npxG p90</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>131</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>187</t>
   </si>
   <si>
     <t>209</t>
   </si>
   <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>305</t>
+    <t>236</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>248</t>
   </si>
   <si>
     <t>Gideon Jung</t>
   </si>
   <si>
+    <t>Nicolas Kristof</t>
+  </si>
+  <si>
+    <t>Semih Sahin</t>
+  </si>
+  <si>
+    <t>Simon Asta</t>
+  </si>
+  <si>
+    <t>Jomaine Consbruch</t>
+  </si>
+  <si>
+    <t>Noel Futkeu</t>
+  </si>
+  <si>
+    <t>Niko Gießelmann</t>
+  </si>
+  <si>
+    <t>Julian Green</t>
+  </si>
+  <si>
+    <t>Branimir Hrgota</t>
+  </si>
+  <si>
+    <t>Gian-Luca Itter</t>
+  </si>
+  <si>
     <t>Roberto Massimo</t>
   </si>
   <si>
+    <t>Marco Meyerhöfer</t>
+  </si>
+  <si>
+    <t>Oualid Mhamdi</t>
+  </si>
+  <si>
+    <t>Philipp Müller</t>
+  </si>
+  <si>
+    <t>Reno Münz</t>
+  </si>
+  <si>
+    <t>Marlon Mustapha</t>
+  </si>
+  <si>
+    <t>Nahuel Noll</t>
+  </si>
+  <si>
     <t>Dennis Srbeny</t>
   </si>
   <si>
     <t>Fisnik Asllani</t>
   </si>
   <si>
+    <t>Elias Baum</t>
+  </si>
+  <si>
+    <t>Luca Dürholtz</t>
+  </si>
+  <si>
     <t>Manuel Feil</t>
   </si>
   <si>
+    <t>Robin Fellhauer</t>
+  </si>
+  <si>
     <t>Filimon Gerezgiher</t>
   </si>
   <si>
-    <t>Nicolas Kristof</t>
-  </si>
-  <si>
-    <t>Semih Sahin</t>
-  </si>
-  <si>
-    <t>Simon Asta</t>
-  </si>
-  <si>
-    <t>Jomaine Consbruch</t>
-  </si>
-  <si>
-    <t>Maximilian Dietz</t>
-  </si>
-  <si>
-    <t>Noel Futkeu</t>
-  </si>
-  <si>
-    <t>Niko Gießelmann</t>
-  </si>
-  <si>
-    <t>Julian Green</t>
-  </si>
-  <si>
-    <t>Branimir Hrgota</t>
-  </si>
-  <si>
-    <t>Gian-Luca Itter</t>
-  </si>
-  <si>
-    <t>Marco Meyerhöfer</t>
-  </si>
-  <si>
-    <t>Oualid Mhamdi</t>
-  </si>
-  <si>
-    <t>Damian Michalski</t>
-  </si>
-  <si>
-    <t>Philipp Müller</t>
-  </si>
-  <si>
-    <t>Reno Münz</t>
-  </si>
-  <si>
-    <t>Marlon Mustapha</t>
-  </si>
-  <si>
-    <t>Nahuel Noll</t>
-  </si>
-  <si>
-    <t>Leander Popp</t>
-  </si>
-  <si>
-    <t>Elias Baum</t>
-  </si>
-  <si>
-    <t>Muhammed Damar</t>
-  </si>
-  <si>
-    <t>Luca Dürholtz</t>
-  </si>
-  <si>
-    <t>Robin Fellhauer</t>
-  </si>
-  <si>
     <t>Florian Le Joncour</t>
   </si>
   <si>
-    <t>Mohammad Mahmoud</t>
-  </si>
-  <si>
     <t>Maurice Neubauer</t>
   </si>
   <si>
-    <t>Lukas Petkov</t>
-  </si>
-  <si>
     <t>Lukas Pinckert</t>
   </si>
   <si>
@@ -335,214 +299,175 @@
     <t>de GER</t>
   </si>
   <si>
+    <t>us USA</t>
+  </si>
+  <si>
+    <t>se SWE</t>
+  </si>
+  <si>
+    <t>ma MAR</t>
+  </si>
+  <si>
+    <t>at AUT</t>
+  </si>
+  <si>
     <t>xk KVX</t>
   </si>
   <si>
-    <t>us USA</t>
-  </si>
-  <si>
-    <t>se SWE</t>
-  </si>
-  <si>
-    <t>ma MAR</t>
-  </si>
-  <si>
-    <t>pl POL</t>
-  </si>
-  <si>
-    <t>at AUT</t>
-  </si>
-  <si>
     <t>fr FRA</t>
   </si>
   <si>
-    <t>bg BUL</t>
-  </si>
-  <si>
     <t>DF</t>
   </si>
   <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
     <t>FW</t>
   </si>
   <si>
-    <t>MF,FW</t>
-  </si>
-  <si>
-    <t>GK</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>FW,MF</t>
-  </si>
-  <si>
-    <t>MF,DF</t>
-  </si>
-  <si>
     <t>Greuther Furth</t>
   </si>
   <si>
     <t>Elversberg</t>
   </si>
   <si>
-    <t>29-353</t>
-  </si>
-  <si>
-    <t>23-323</t>
-  </si>
-  <si>
-    <t>30-117</t>
-  </si>
-  <si>
-    <t>22-022</t>
-  </si>
-  <si>
-    <t>29-327</t>
-  </si>
-  <si>
-    <t>24-057</t>
-  </si>
-  <si>
-    <t>24-254</t>
-  </si>
-  <si>
-    <t>24-252</t>
-  </si>
-  <si>
-    <t>23-218</t>
-  </si>
-  <si>
-    <t>22-217</t>
-  </si>
-  <si>
-    <t>22-203</t>
-  </si>
-  <si>
-    <t>21-268</t>
-  </si>
-  <si>
-    <t>32-339</t>
-  </si>
-  <si>
-    <t>29-085</t>
-  </si>
-  <si>
-    <t>31-231</t>
-  </si>
-  <si>
-    <t>25-238</t>
-  </si>
-  <si>
-    <t>28-286</t>
-  </si>
-  <si>
-    <t>21-102</t>
-  </si>
-  <si>
-    <t>26-105</t>
-  </si>
-  <si>
-    <t>20-225</t>
-  </si>
-  <si>
-    <t>18-333</t>
-  </si>
-  <si>
-    <t>23-098</t>
-  </si>
-  <si>
-    <t>21-166</t>
-  </si>
-  <si>
-    <t>19-096</t>
+    <t>29-329</t>
+  </si>
+  <si>
+    <t>24-230</t>
+  </si>
+  <si>
+    <t>24-228</t>
+  </si>
+  <si>
+    <t>23-194</t>
+  </si>
+  <si>
+    <t>22-193</t>
+  </si>
+  <si>
+    <t>21-244</t>
+  </si>
+  <si>
+    <t>32-315</t>
+  </si>
+  <si>
+    <t>29-061</t>
+  </si>
+  <si>
+    <t>31-207</t>
+  </si>
+  <si>
+    <t>25-214</t>
+  </si>
+  <si>
+    <t>23-299</t>
+  </si>
+  <si>
+    <t>28-262</t>
+  </si>
+  <si>
+    <t>21-078</t>
+  </si>
+  <si>
+    <t>20-201</t>
   </si>
   <si>
     <t>18-309</t>
   </si>
   <si>
-    <t>20-143</t>
-  </si>
-  <si>
-    <t>31-012</t>
-  </si>
-  <si>
-    <t>26-222</t>
-  </si>
-  <si>
-    <t>29-209</t>
-  </si>
-  <si>
-    <t>19-199</t>
-  </si>
-  <si>
-    <t>28-123</t>
-  </si>
-  <si>
-    <t>23-303</t>
-  </si>
-  <si>
-    <t>24-221</t>
-  </si>
-  <si>
-    <t>21-253</t>
-  </si>
-  <si>
-    <t>30-116</t>
-  </si>
-  <si>
-    <t>27-032</t>
-  </si>
-  <si>
-    <t>27-235</t>
+    <t>23-074</t>
+  </si>
+  <si>
+    <t>21-142</t>
+  </si>
+  <si>
+    <t>30-093</t>
+  </si>
+  <si>
+    <t>21-364</t>
+  </si>
+  <si>
+    <t>18-285</t>
+  </si>
+  <si>
+    <t>30-354</t>
+  </si>
+  <si>
+    <t>29-303</t>
+  </si>
+  <si>
+    <t>26-198</t>
+  </si>
+  <si>
+    <t>24-033</t>
+  </si>
+  <si>
+    <t>29-185</t>
+  </si>
+  <si>
+    <t>28-099</t>
+  </si>
+  <si>
+    <t>24-197</t>
+  </si>
+  <si>
+    <t>21-229</t>
+  </si>
+  <si>
+    <t>30-092</t>
+  </si>
+  <si>
+    <t>27-008</t>
+  </si>
+  <si>
+    <t>27-211</t>
   </si>
   <si>
     <t>1994</t>
   </si>
   <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
     <t>2000</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
     <t>2003</t>
   </si>
   <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>1998</t>
   </si>
   <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
     <t>1996</t>
   </si>
   <si>
     <t>1997</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>1</t>
@@ -700,37 +625,37 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>140.0</v>
+        <v>120.0</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="I2" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K2" t="n">
-        <v>270.0</v>
+        <v>90.0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M2" t="n">
         <v>1.0</v>
@@ -763,37 +688,37 @@
         <v>0.7</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.33</v>
+        <v>1.0</v>
       </c>
       <c r="AC2" t="n">
         <v>0.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.33</v>
+        <v>1.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.33</v>
+        <v>1.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.33</v>
+        <v>1.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.23</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
@@ -801,37 +726,37 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>201.0</v>
+        <v>150.0</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
         <v>106</v>
       </c>
-      <c r="E3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" t="s">
-        <v>122</v>
-      </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K3" t="n">
-        <v>200.0</v>
+        <v>90.0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.2</v>
+        <v>1.0</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -858,25 +783,25 @@
         <v>0.0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB3" t="n">
         <v>0.0</v>
@@ -894,7 +819,7 @@
         <v>0.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.21</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -902,100 +827,100 @@
         <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>304.0</v>
+        <v>226.0</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
         <v>106</v>
       </c>
-      <c r="E4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" t="s">
-        <v>122</v>
-      </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="I4" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K4" t="n">
-        <v>227.0</v>
+        <v>90.0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.5</v>
+        <v>1.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>2.0</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11.0</v>
-      </c>
       <c r="AB4" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.79</v>
+        <v>0.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.79</v>
+        <v>0.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.39</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -1003,49 +928,49 @@
         <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="I5" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
       <c r="K5" t="n">
-        <v>147.0</v>
+        <v>90.0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.6</v>
+        <v>1.0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="O5" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q5" t="n">
         <v>0.0</v>
@@ -1054,49 +979,49 @@
         <v>0.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T5" t="n">
         <v>0.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>0.0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="X5" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="Y5" t="n">
         <v>3.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.22</v>
+        <v>0.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.22</v>
+        <v>0.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.45</v>
+        <v>0.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.22</v>
+        <v>0.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.45</v>
+        <v>0.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.94</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -1104,37 +1029,37 @@
         <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>68.0</v>
+        <v>34.0</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J6" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K6" t="n">
-        <v>209.0</v>
+        <v>2.0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.3</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
         <v>0.0</v>
@@ -1155,31 +1080,31 @@
         <v>0.0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T6" t="n">
         <v>0.0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" t="n">
         <v>0.0</v>
@@ -1197,7 +1122,7 @@
         <v>0.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.1</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="7">
@@ -1205,37 +1130,37 @@
         <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>82.0</v>
+        <v>61.0</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="I7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
       <c r="K7" t="n">
-        <v>110.0</v>
+        <v>88.0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.0</v>
       </c>
       <c r="M7" t="n">
         <v>0.0</v>
@@ -1256,31 +1181,31 @@
         <v>0.0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T7" t="n">
         <v>0.0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="W7" t="n">
         <v>0.0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB7" t="n">
         <v>0.0</v>
@@ -1298,7 +1223,7 @@
         <v>0.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.1</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="8">
@@ -1306,37 +1231,37 @@
         <v>38</v>
       </c>
       <c r="B8" t="n">
-        <v>178.0</v>
+        <v>70.0</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="H8" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="I8" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J8" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>270.0</v>
+        <v>11.0</v>
       </c>
       <c r="L8" t="n">
-        <v>3.0</v>
+        <v>0.1</v>
       </c>
       <c r="M8" t="n">
         <v>0.0</v>
@@ -1357,7 +1282,7 @@
         <v>0.0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T8" t="n">
         <v>0.0</v>
@@ -1407,91 +1332,91 @@
         <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>280.0</v>
+        <v>76.0</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H9" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="I9" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z9" t="n">
         <v>3.0</v>
       </c>
-      <c r="K9" t="n">
-        <v>264.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>15.0</v>
-      </c>
       <c r="AA9" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AC9" t="n">
         <v>0.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE9" t="n">
         <v>0.0</v>
@@ -1500,7 +1425,7 @@
         <v>0.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.02</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="10">
@@ -1508,97 +1433,97 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>11.0</v>
+        <v>103.0</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
         <v>115</v>
       </c>
-      <c r="F10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" t="s">
-        <v>132</v>
-      </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="I10" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y10" t="n">
         <v>3.0</v>
       </c>
-      <c r="K10" t="n">
-        <v>270.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>6.0</v>
       </c>
-      <c r="Z10" t="n">
-        <v>4.0</v>
-      </c>
       <c r="AA10" t="n">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB10" t="n">
         <v>0.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AE10" t="n">
         <v>0.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AG10" t="n">
         <v>0.02</v>
@@ -1609,37 +1534,37 @@
         <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>42.0</v>
+        <v>112.0</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="I11" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K11" t="n">
-        <v>17.0</v>
+        <v>90.0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2</v>
+        <v>1.0</v>
       </c>
       <c r="M11" t="n">
         <v>0.0</v>
@@ -1678,13 +1603,13 @@
         <v>0.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB11" t="n">
         <v>0.0</v>
@@ -1702,7 +1627,7 @@
         <v>0.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.13</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -1710,37 +1635,37 @@
         <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>54.0</v>
+        <v>167.0</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="H12" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="I12" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K12" t="n">
-        <v>59.0</v>
+        <v>79.0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="M12" t="n">
         <v>0.0</v>
@@ -1767,25 +1692,25 @@
         <v>0.0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB12" t="n">
         <v>0.0</v>
@@ -1803,7 +1728,7 @@
         <v>0.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="13">
@@ -1811,49 +1736,49 @@
         <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>74.0</v>
+        <v>174.0</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K13" t="n">
-        <v>264.0</v>
+        <v>88.0</v>
       </c>
       <c r="L13" t="n">
-        <v>2.9</v>
+        <v>1.0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N13" t="n">
         <v>0.0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
         <v>0.0</v>
@@ -1868,43 +1793,43 @@
         <v>0.0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.4</v>
+        <v>0.0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>0.0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X13" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.34</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" t="n">
         <v>0.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.34</v>
+        <v>0.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.34</v>
+        <v>0.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.34</v>
+        <v>0.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.46</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14">
@@ -1912,37 +1837,37 @@
         <v>44</v>
       </c>
       <c r="B14" t="n">
-        <v>83.0</v>
+        <v>175.0</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G14" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="I14" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J14" t="n">
         <v>0.0</v>
       </c>
       <c r="K14" t="n">
-        <v>70.0</v>
+        <v>2.0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8</v>
+        <v>0.0</v>
       </c>
       <c r="M14" t="n">
         <v>0.0</v>
@@ -1969,25 +1894,25 @@
         <v>0.0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W14" t="n">
         <v>0.0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y14" t="n">
         <v>0.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" t="n">
         <v>0.0</v>
@@ -2005,7 +1930,7 @@
         <v>0.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.14</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -2013,55 +1938,55 @@
         <v>45</v>
       </c>
       <c r="B15" t="n">
-        <v>90.0</v>
+        <v>180.0</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="H15" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="I15" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J15" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K15" t="n">
-        <v>270.0</v>
+        <v>79.0</v>
       </c>
       <c r="L15" t="n">
-        <v>3.0</v>
+        <v>0.9</v>
       </c>
       <c r="M15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="P15" t="n">
         <v>0.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="S15" t="n">
         <v>0.0</v>
@@ -2070,43 +1995,43 @@
         <v>0.0</v>
       </c>
       <c r="U15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="X15" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0</v>
+        <v>1.14</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.67</v>
+        <v>1.14</v>
       </c>
       <c r="AE15" t="n">
         <v>0.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.0</v>
+        <v>1.14</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.67</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
@@ -2114,46 +2039,46 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>121.0</v>
+        <v>181.0</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="H16" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J16" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>270.0</v>
+        <v>11.0</v>
       </c>
       <c r="L16" t="n">
-        <v>3.0</v>
+        <v>0.1</v>
       </c>
       <c r="M16" t="n">
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P16" t="n">
         <v>0.0</v>
@@ -2171,43 +2096,43 @@
         <v>0.0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.7</v>
+        <v>0.0</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9</v>
+        <v>0.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" t="n">
         <v>0.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
       <c r="AE16" t="n">
         <v>0.0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.07</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -2215,49 +2140,49 @@
         <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>131.0</v>
+        <v>186.0</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" t="s">
         <v>122</v>
       </c>
-      <c r="G17" t="s">
-        <v>139</v>
-      </c>
       <c r="H17" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J17" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>270.0</v>
+        <v>20.0</v>
       </c>
       <c r="L17" t="n">
-        <v>3.0</v>
+        <v>0.2</v>
       </c>
       <c r="M17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" t="n">
         <v>0.0</v>
@@ -2272,43 +2197,43 @@
         <v>0.0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X17" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" t="n">
         <v>0.0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.33</v>
+        <v>0.0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.03</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -2316,37 +2241,37 @@
         <v>48</v>
       </c>
       <c r="B18" t="n">
-        <v>209.0</v>
+        <v>193.0</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J18" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K18" t="n">
-        <v>254.0</v>
+        <v>90.0</v>
       </c>
       <c r="L18" t="n">
-        <v>2.8</v>
+        <v>1.0</v>
       </c>
       <c r="M18" t="n">
         <v>0.0</v>
@@ -2379,19 +2304,19 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" t="n">
         <v>0.0</v>
@@ -2409,7 +2334,7 @@
         <v>0.0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.01</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -2417,100 +2342,100 @@
         <v>49</v>
       </c>
       <c r="B19" t="n">
-        <v>210.0</v>
+        <v>247.0</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="H19" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K19" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y19" t="n">
         <v>2.0</v>
       </c>
-      <c r="L19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Z19" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0</v>
+        <v>1.29</v>
       </c>
       <c r="AC19" t="n">
         <v>0.0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0</v>
+        <v>1.29</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0</v>
+        <v>1.29</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.0</v>
+        <v>1.29</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="20">
@@ -2518,37 +2443,37 @@
         <v>50</v>
       </c>
       <c r="B20" t="n">
-        <v>211.0</v>
+        <v>7.0</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="H20" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="J20" t="n">
         <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>3.0</v>
+        <v>29.0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0</v>
+        <v>0.3</v>
       </c>
       <c r="M20" t="n">
         <v>0.0</v>
@@ -2590,10 +2515,10 @@
         <v>0.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AB20" t="n">
         <v>0.0</v>
@@ -2611,7 +2536,7 @@
         <v>0.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.91</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -2619,46 +2544,46 @@
         <v>51</v>
       </c>
       <c r="B21" t="n">
-        <v>218.0</v>
+        <v>16.0</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" t="s">
         <v>106</v>
       </c>
-      <c r="E21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" t="s">
-        <v>122</v>
-      </c>
       <c r="G21" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H21" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J21" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K21" t="n">
-        <v>211.0</v>
+        <v>90.0</v>
       </c>
       <c r="L21" t="n">
-        <v>2.3</v>
+        <v>1.0</v>
       </c>
       <c r="M21" t="n">
         <v>0.0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P21" t="n">
         <v>0.0</v>
@@ -2676,43 +2601,43 @@
         <v>0.0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.4</v>
+        <v>0.0</v>
       </c>
       <c r="Y21" t="n">
         <v>1.0</v>
       </c>
       <c r="Z21" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB21" t="n">
         <v>0.0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.43</v>
+        <v>0.0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.43</v>
+        <v>0.0</v>
       </c>
       <c r="AE21" t="n">
         <v>0.0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.43</v>
+        <v>0.0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -2720,37 +2645,37 @@
         <v>52</v>
       </c>
       <c r="B22" t="n">
-        <v>219.0</v>
+        <v>47.0</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" t="s">
         <v>106</v>
       </c>
-      <c r="E22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" t="s">
-        <v>122</v>
-      </c>
       <c r="G22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" t="s">
         <v>144</v>
       </c>
-      <c r="H22" t="s">
-        <v>172</v>
-      </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="J22" t="n">
         <v>0.0</v>
       </c>
       <c r="K22" t="n">
-        <v>11.0</v>
+        <v>45.0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="M22" t="n">
         <v>0.0</v>
@@ -2821,37 +2746,37 @@
         <v>53</v>
       </c>
       <c r="B23" t="n">
-        <v>224.0</v>
+        <v>55.0</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H23" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K23" t="n">
-        <v>29.0</v>
+        <v>61.0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M23" t="n">
         <v>0.0</v>
@@ -2890,13 +2815,13 @@
         <v>0.0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB23" t="n">
         <v>0.0</v>
@@ -2922,37 +2847,37 @@
         <v>54</v>
       </c>
       <c r="B24" t="n">
-        <v>233.0</v>
+        <v>56.0</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
         <v>106</v>
       </c>
-      <c r="E24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F24" t="s">
-        <v>122</v>
-      </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="H24" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J24" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K24" t="n">
-        <v>270.0</v>
+        <v>90.0</v>
       </c>
       <c r="L24" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M24" t="n">
         <v>0.0</v>
@@ -2985,16 +2910,16 @@
         <v>0.0</v>
       </c>
       <c r="W24" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="Y24" t="n">
         <v>0.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA24" t="n">
         <v>0.0</v>
@@ -3015,7 +2940,7 @@
         <v>0.0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="25">
@@ -3023,37 +2948,37 @@
         <v>55</v>
       </c>
       <c r="B25" t="n">
-        <v>258.0</v>
+        <v>69.0</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
         <v>106</v>
       </c>
-      <c r="E25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" t="s">
-        <v>122</v>
-      </c>
       <c r="G25" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="H25" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="I25" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="J25" t="n">
         <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="M25" t="n">
         <v>0.0</v>
@@ -3098,7 +3023,7 @@
         <v>0.0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB25" t="n">
         <v>0.0</v>
@@ -3116,7 +3041,7 @@
         <v>0.0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.0</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="26">
@@ -3124,37 +3049,37 @@
         <v>56</v>
       </c>
       <c r="B26" t="n">
-        <v>20.0</v>
+        <v>154.0</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
         <v>106</v>
       </c>
-      <c r="E26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" t="s">
-        <v>123</v>
-      </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="H26" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="I26" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J26" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K26" t="n">
-        <v>264.0</v>
+        <v>90.0</v>
       </c>
       <c r="L26" t="n">
-        <v>2.9</v>
+        <v>1.0</v>
       </c>
       <c r="M26" t="n">
         <v>0.0</v>
@@ -3193,13 +3118,13 @@
         <v>0.0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z26" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA26" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" t="n">
         <v>0.0</v>
@@ -3225,37 +3150,37 @@
         <v>57</v>
       </c>
       <c r="B27" t="n">
-        <v>48.0</v>
+        <v>187.0</v>
       </c>
       <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
         <v>94</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" t="s">
         <v>106</v>
       </c>
-      <c r="E27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" t="s">
-        <v>123</v>
-      </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="H27" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="J27" t="n">
         <v>1.0</v>
       </c>
       <c r="K27" t="n">
-        <v>64.0</v>
+        <v>90.0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.7</v>
+        <v>1.0</v>
       </c>
       <c r="M27" t="n">
         <v>0.0</v>
@@ -3294,14 +3219,14 @@
         <v>0.0</v>
       </c>
       <c r="Y27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA27" t="n">
         <v>3.0</v>
       </c>
-      <c r="Z27" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>2.0</v>
-      </c>
       <c r="AB27" t="n">
         <v>0.0</v>
       </c>
@@ -3318,7 +3243,7 @@
         <v>0.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.02</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -3326,37 +3251,37 @@
         <v>58</v>
       </c>
       <c r="B28" t="n">
-        <v>60.0</v>
+        <v>209.0</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" t="s">
         <v>106</v>
       </c>
-      <c r="E28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" t="s">
-        <v>123</v>
-      </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="H28" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="I28" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.0</v>
+        <v>90.0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="M28" t="n">
         <v>0.0</v>
@@ -3398,7 +3323,7 @@
         <v>0.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA28" t="n">
         <v>0.0</v>
@@ -3427,46 +3352,46 @@
         <v>59</v>
       </c>
       <c r="B29" t="n">
-        <v>69.0</v>
+        <v>236.0</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
         <v>106</v>
       </c>
-      <c r="E29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" t="s">
-        <v>123</v>
-      </c>
       <c r="G29" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H29" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="I29" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J29" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K29" t="n">
-        <v>270.0</v>
+        <v>45.0</v>
       </c>
       <c r="L29" t="n">
-        <v>3.0</v>
+        <v>0.5</v>
       </c>
       <c r="M29" t="n">
         <v>0.0</v>
       </c>
       <c r="N29" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="P29" t="n">
         <v>0.0</v>
@@ -3490,16 +3415,16 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>0.0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.4</v>
+        <v>0.0</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA29" t="n">
         <v>2.0</v>
@@ -3508,19 +3433,19 @@
         <v>0.0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="AE29" t="n">
         <v>0.0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.67</v>
+        <v>0.0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.01</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -3528,37 +3453,37 @@
         <v>60</v>
       </c>
       <c r="B30" t="n">
-        <v>183.0</v>
+        <v>238.0</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" t="s">
         <v>152</v>
       </c>
-      <c r="H30" t="s">
-        <v>167</v>
-      </c>
-      <c r="I30" t="s">
-        <v>175</v>
-      </c>
       <c r="J30" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K30" t="n">
-        <v>270.0</v>
+        <v>74.0</v>
       </c>
       <c r="L30" t="n">
-        <v>3.0</v>
+        <v>0.8</v>
       </c>
       <c r="M30" t="n">
         <v>0.0</v>
@@ -3585,25 +3510,25 @@
         <v>0.0</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="Y30" t="n">
         <v>3.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB30" t="n">
         <v>0.0</v>
@@ -3621,7 +3546,7 @@
         <v>0.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="31">
@@ -3629,37 +3554,37 @@
         <v>61</v>
       </c>
       <c r="B31" t="n">
-        <v>194.0</v>
+        <v>244.0</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" t="s">
         <v>106</v>
       </c>
-      <c r="E31" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" t="s">
-        <v>123</v>
-      </c>
       <c r="G31" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="H31" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="I31" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="J31" t="n">
         <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M31" t="n">
         <v>0.0</v>
@@ -3704,7 +3629,7 @@
         <v>0.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" t="n">
         <v>0.0</v>
@@ -3730,37 +3655,37 @@
         <v>62</v>
       </c>
       <c r="B32" t="n">
-        <v>226.0</v>
+        <v>248.0</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" t="s">
         <v>106</v>
       </c>
-      <c r="E32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" t="s">
-        <v>123</v>
-      </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="I32" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="J32" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K32" t="n">
-        <v>270.0</v>
+        <v>84.0</v>
       </c>
       <c r="L32" t="n">
-        <v>3.0</v>
+        <v>0.9</v>
       </c>
       <c r="M32" t="n">
         <v>0.0</v>
@@ -3787,26 +3712,26 @@
         <v>0.0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="W32" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Y32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA32" t="n">
         <v>5.0</v>
       </c>
-      <c r="Z32" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>16.0</v>
-      </c>
       <c r="AB32" t="n">
         <v>0.0</v>
       </c>
@@ -3823,613 +3748,7 @@
         <v>0.0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="n">
-        <v>252.0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33" t="s">
-        <v>155</v>
-      </c>
-      <c r="H33" t="s">
-        <v>162</v>
-      </c>
-      <c r="I33" t="s">
-        <v>177</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" t="n">
-        <v>256.0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" t="s">
-        <v>123</v>
-      </c>
-      <c r="G34" t="s">
-        <v>156</v>
-      </c>
-      <c r="H34" t="s">
-        <v>162</v>
-      </c>
-      <c r="I34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>270.0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" t="n">
-        <v>291.0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" t="s">
-        <v>157</v>
-      </c>
-      <c r="H35" t="s">
-        <v>163</v>
-      </c>
-      <c r="I35" t="s">
-        <v>175</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" t="n">
-        <v>293.0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" t="s">
-        <v>158</v>
-      </c>
-      <c r="H36" t="s">
-        <v>161</v>
-      </c>
-      <c r="I36" t="s">
-        <v>175</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>209.0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="n">
-        <v>301.0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G37" t="s">
-        <v>159</v>
-      </c>
-      <c r="H37" t="s">
-        <v>174</v>
-      </c>
-      <c r="I37" t="s">
-        <v>176</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" t="n">
-        <v>305.0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" t="s">
-        <v>123</v>
-      </c>
-      <c r="G38" t="s">
-        <v>160</v>
-      </c>
-      <c r="H38" t="s">
-        <v>174</v>
-      </c>
-      <c r="I38" t="s">
-        <v>175</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>155.0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0.07</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
